--- a/src/test/java/com/pack/testData/Certifications.xlsx
+++ b/src/test/java/com/pack/testData/Certifications.xlsx
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="F4" sqref="F4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,50 +542,50 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="0">
         <v>21</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="0">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="0">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="0">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="0">
+        <v>24</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J2">
-        <v>23</v>
+      <c r="J2" s="0">
+        <v>24</v>
       </c>
       <c r="K2" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="P2">
-        <v>24</v>
+      <c r="P2" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -596,46 +596,46 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="P3">
-        <v>25</v>
+      <c r="P3" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
